--- a/ProvaDati.xlsx
+++ b/ProvaDati.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scava\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6CE9788-2371-407F-A0F0-7A6ED8FD16E8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE48561F-8D91-4718-8CD0-697E2401265E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1F36E3FC-CFA4-42B0-9232-39C95FE2F050}"/>
   </bookViews>
@@ -31,13 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
-  <si>
-    <t>NOME</t>
-  </si>
-  <si>
-    <t>COGNOME</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>Marco</t>
   </si>
@@ -69,40 +63,25 @@
     <t>Valeria</t>
   </si>
   <si>
-    <t>Rossi</t>
-  </si>
-  <si>
-    <t>Bianchi</t>
-  </si>
-  <si>
-    <t>Verdi</t>
-  </si>
-  <si>
-    <t>Gialli</t>
-  </si>
-  <si>
-    <t>Marrone</t>
-  </si>
-  <si>
-    <t>Neri</t>
-  </si>
-  <si>
-    <t>De Filippi</t>
-  </si>
-  <si>
-    <t>De Luca</t>
-  </si>
-  <si>
-    <t>De Vita</t>
-  </si>
-  <si>
-    <t>Mazzei</t>
-  </si>
-  <si>
-    <t>Vinci</t>
-  </si>
-  <si>
-    <t>VALORE</t>
+    <t>TYPE</t>
+  </si>
+  <si>
+    <t>VALUE</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>DI</t>
+  </si>
+  <si>
+    <t>AO</t>
+  </si>
+  <si>
+    <t>DO</t>
+  </si>
+  <si>
+    <t>AI</t>
   </si>
 </sst>
 </file>
@@ -480,7 +459,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -490,32 +469,32 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2">
-        <v>24.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2">
         <v>3.6</v>
@@ -523,21 +502,21 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2">
-        <v>8.6999999999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2">
         <v>9</v>
@@ -545,32 +524,32 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C6" s="2">
-        <v>10.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C7" s="2">
-        <v>77.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="2">
         <v>2</v>
@@ -578,32 +557,32 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C9" s="2">
-        <v>89.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C10" s="2">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C11" s="2">
         <v>0.56000000000000005</v>
@@ -611,13 +590,13 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C12" s="2">
-        <v>11.23</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
